--- a/Chromosomes.xlsx
+++ b/Chromosomes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14960" tabRatio="602" activeTab="1"/>
@@ -56,9 +56,6 @@
     <t>Sinecaudum</t>
   </si>
   <si>
-    <t>length (Mb)</t>
-  </si>
-  <si>
     <t>number of proteins</t>
   </si>
   <si>
@@ -103,12 +100,16 @@
   <si>
     <t>R value</t>
   </si>
+  <si>
+    <t>length (bp)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -206,7 +207,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="255"/>
@@ -217,6 +218,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
@@ -355,6 +357,24 @@
                       <a:t># Proteins = 436.17 (Chromosome Size) + 91.679
 R² = 0.96777</a:t>
                     </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>t value = 12.25</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>t-dist = 6.41E-05</a:t>
+                    </a:r>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -432,11 +452,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1849256888"/>
-        <c:axId val="2068329016"/>
+        <c:axId val="-2109531096"/>
+        <c:axId val="2109600728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1849256888"/>
+        <c:axId val="-2109531096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -472,12 +492,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2068329016"/>
+        <c:crossAx val="2109600728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2068329016"/>
+        <c:axId val="2109600728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,7 +525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1849256888"/>
+        <c:crossAx val="-2109531096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -672,11 +692,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1849211224"/>
-        <c:axId val="1849216888"/>
+        <c:axId val="2082059032"/>
+        <c:axId val="2109286952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1849211224"/>
+        <c:axId val="2082059032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -712,12 +732,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1849216888"/>
+        <c:crossAx val="2109286952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1849216888"/>
+        <c:axId val="2109286952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1849211224"/>
+        <c:crossAx val="2082059032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -918,11 +938,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2068223096"/>
-        <c:axId val="2068225752"/>
+        <c:axId val="-2109525128"/>
+        <c:axId val="-2108755144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2068223096"/>
+        <c:axId val="-2109525128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -958,12 +978,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2068225752"/>
+        <c:crossAx val="-2108755144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2068225752"/>
+        <c:axId val="-2108755144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,7 +1016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2068223096"/>
+        <c:crossAx val="-2109525128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1646,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1657,18 +1677,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7"/>
       <c r="B2">
         <v>2.06</v>
       </c>
@@ -1677,7 +1697,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3">
         <v>1.4</v>
       </c>
@@ -1686,7 +1706,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="33" customHeight="1">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4">
         <v>1.4</v>
       </c>
@@ -1695,7 +1715,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" customHeight="1">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5">
         <v>1.1200000000000001</v>
       </c>
@@ -1704,7 +1724,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="26" customHeight="1">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6">
         <v>0.91</v>
       </c>
@@ -1713,7 +1733,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7">
         <v>0.93</v>
       </c>
@@ -1722,7 +1742,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8">
         <v>1.0900000000000001</v>
       </c>
@@ -1735,13 +1755,13 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1759,18 +1779,18 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="7" t="s">
-        <v>20</v>
+      <c r="A16" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
       <c r="B17">
         <v>0.69</v>
       </c>
@@ -1779,7 +1799,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="7"/>
+      <c r="A18" s="8"/>
       <c r="B18">
         <v>0.87</v>
       </c>
@@ -1788,7 +1808,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="8"/>
       <c r="B19">
         <v>0.91</v>
       </c>
@@ -1797,7 +1817,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="7"/>
+      <c r="A20" s="8"/>
       <c r="B20">
         <v>1.47</v>
       </c>
@@ -1806,7 +1826,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="8"/>
       <c r="B21">
         <v>1.52</v>
       </c>
@@ -1815,7 +1835,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="7"/>
+      <c r="A22" s="8"/>
       <c r="B22">
         <v>1.84</v>
       </c>
@@ -1824,7 +1844,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="7"/>
+      <c r="A23" s="8"/>
       <c r="B23">
         <v>1.8</v>
       </c>
@@ -1837,13 +1857,13 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1861,18 +1881,18 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="7" t="s">
-        <v>13</v>
+      <c r="A31" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="7"/>
+      <c r="A32" s="8"/>
       <c r="B32">
         <v>1.1100000000000001</v>
       </c>
@@ -1881,7 +1901,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="7"/>
+      <c r="A33" s="8"/>
       <c r="B33">
         <v>1.6</v>
       </c>
@@ -1890,7 +1910,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="35" customHeight="1">
-      <c r="A34" s="7"/>
+      <c r="A34" s="8"/>
       <c r="B34">
         <v>1.19</v>
       </c>
@@ -1899,7 +1919,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="7"/>
+      <c r="A35" s="8"/>
       <c r="B35">
         <v>1.54</v>
       </c>
@@ -1908,7 +1928,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="7"/>
+      <c r="A36" s="8"/>
       <c r="B36">
         <v>1.39</v>
       </c>
@@ -1917,7 +1937,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="7"/>
+      <c r="A37" s="8"/>
       <c r="B37">
         <v>0.96</v>
       </c>
@@ -1926,7 +1946,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="7"/>
+      <c r="A38" s="8"/>
       <c r="B38">
         <v>0.98</v>
       </c>
@@ -1935,7 +1955,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="39" customHeight="1">
-      <c r="A39" s="7"/>
+      <c r="A39" s="8"/>
       <c r="B39">
         <v>0.9</v>
       </c>
@@ -1948,13 +1968,13 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1973,12 +1993,12 @@
     </row>
     <row r="48" spans="1:3">
       <c r="B48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49">
         <v>0.96777000000000002</v>
@@ -1986,7 +2006,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50">
         <v>0.91617000000000004</v>
@@ -1994,7 +2014,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51">
         <v>0.98033000000000003</v>
@@ -2002,7 +2022,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <f>AVERAGE(B49:B51)</f>
@@ -2029,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2043,13 +2063,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -2059,10 +2079,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2">
@@ -2080,7 +2100,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" customHeight="1">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -2099,7 +2119,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -2118,7 +2138,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28" customHeight="1">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -2137,7 +2157,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -2156,7 +2176,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -2175,7 +2195,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -2195,13 +2215,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
@@ -2211,11 +2231,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>20</v>
+      <c r="A16" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>693414</v>
@@ -2232,7 +2252,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="28" customHeight="1">
-      <c r="A17" s="8"/>
+      <c r="A17" s="9"/>
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -2251,7 +2271,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="28" customHeight="1">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -2270,7 +2290,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="28" customHeight="1">
-      <c r="A19" s="8"/>
+      <c r="A19" s="9"/>
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -2289,7 +2309,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="28" customHeight="1">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -2308,7 +2328,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="28" customHeight="1">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -2327,7 +2347,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="28" customHeight="1">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9"/>
       <c r="B22" t="s">
         <v>7</v>
       </c>
@@ -2347,13 +2367,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
         <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
       </c>
       <c r="E29" t="s">
         <v>0</v>
@@ -2363,11 +2383,11 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="28" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>23</v>
+      <c r="A30" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>1110245</v>
@@ -2384,7 +2404,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="28" customHeight="1">
-      <c r="A31" s="8"/>
+      <c r="A31" s="9"/>
       <c r="B31" t="s">
         <v>2</v>
       </c>
@@ -2403,7 +2423,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28" customHeight="1">
-      <c r="A32" s="8"/>
+      <c r="A32" s="9"/>
       <c r="B32" t="s">
         <v>3</v>
       </c>
@@ -2422,7 +2442,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="28" customHeight="1">
-      <c r="A33" s="8"/>
+      <c r="A33" s="9"/>
       <c r="B33" t="s">
         <v>4</v>
       </c>
@@ -2441,7 +2461,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28" customHeight="1">
-      <c r="A34" s="8"/>
+      <c r="A34" s="9"/>
       <c r="B34" t="s">
         <v>5</v>
       </c>
@@ -2460,7 +2480,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="28" customHeight="1">
-      <c r="A35" s="8"/>
+      <c r="A35" s="9"/>
       <c r="B35" t="s">
         <v>6</v>
       </c>
@@ -2479,7 +2499,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="28" customHeight="1">
-      <c r="A36" s="8"/>
+      <c r="A36" s="9"/>
       <c r="B36" t="s">
         <v>7</v>
       </c>
@@ -2498,7 +2518,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="28" customHeight="1">
-      <c r="A37" s="9"/>
+      <c r="A37" s="10"/>
       <c r="B37" t="s">
         <v>8</v>
       </c>
